--- a/03スプリントバックログ/Scrum5_スプリントバックログ1128.xlsx
+++ b/03スプリントバックログ/Scrum5_スプリントバックログ1128.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11116"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9AEC7F5-81D6-8047-883B-0A0508324B0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58BE5937-D670-B640-97C9-A0BF1C8B7CFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="15500" firstSheet="5" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="15500" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="スプリントバックログ (第1スプリント)" sheetId="3" r:id="rId1"/>
@@ -15,8 +15,8 @@
     <sheet name="スプリント計画（カレンダー）" sheetId="16" r:id="rId5"/>
     <sheet name="スプリント計画（課題投稿）" sheetId="7" r:id="rId6"/>
     <sheet name="スプリント計画（閲覧）" sheetId="15" r:id="rId7"/>
-    <sheet name="スプリント計画（課題返答）" sheetId="9" r:id="rId8"/>
-    <sheet name="スプリント計画（プロフィール表示）" sheetId="17" r:id="rId9"/>
+    <sheet name="スプリント計画（プロフィール表示）" sheetId="17" r:id="rId8"/>
+    <sheet name="スプリント計画（課題返答）" sheetId="9" r:id="rId9"/>
     <sheet name="スプリント計画（ベストアンサー）" sheetId="18" r:id="rId10"/>
     <sheet name="スプリント計画（機能説明）" sheetId="19" r:id="rId11"/>
     <sheet name="スプリント計画（ユーザー新規登録）" sheetId="20" r:id="rId12"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="83">
   <si>
     <t>機能名</t>
     <rPh sb="0" eb="3">
@@ -614,30 +614,9 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>実施</t>
-    <rPh sb="0" eb="2">
-      <t>ジッシ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>藤井</t>
     <rPh sb="0" eb="2">
       <t>フジイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>金子</t>
-    <rPh sb="0" eb="2">
-      <t>カネコ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>玉川</t>
-    <rPh sb="0" eb="2">
-      <t>タマガワ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -716,6 +695,9 @@
       <t>ミジッセィ</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メールアドレス・パスワード・ニックネームを見ることができる</t>
   </si>
 </sst>
 </file>
@@ -1177,7 +1159,7 @@
         <v>69</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="40" customHeight="1">
@@ -1796,7 +1778,7 @@
         <v>33</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="40" customHeight="1">
@@ -1813,7 +1795,7 @@
         <v>69</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="40" customHeight="1">
@@ -1856,7 +1838,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
@@ -1906,10 +1888,10 @@
         <v>19</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="40" customHeight="1">
@@ -1923,18 +1905,28 @@
         <v>15</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="40" customHeight="1">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="6" spans="1:5" ht="40" customHeight="1">
       <c r="A6" s="1"/>
@@ -1969,7 +1961,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
@@ -1977,7 +1969,7 @@
     <col min="1" max="1" width="18.5" style="4" customWidth="1"/>
     <col min="2" max="2" width="64.5" style="4" customWidth="1"/>
     <col min="3" max="3" width="13" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.83203125" style="4" customWidth="1"/>
     <col min="5" max="5" width="13" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="4"/>
   </cols>
@@ -2018,8 +2010,12 @@
       <c r="C3" s="8">
         <v>17</v>
       </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
+      <c r="D3" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="4" spans="1:5" ht="40" customHeight="1">
       <c r="A4" s="8" t="s">
@@ -2031,8 +2027,12 @@
       <c r="C4" s="8">
         <v>11</v>
       </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
+      <c r="D4" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="5" spans="1:5" ht="40" customHeight="1">
       <c r="A5" s="8" t="s">
@@ -2044,8 +2044,12 @@
       <c r="C5" s="8">
         <v>30</v>
       </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
+      <c r="D5" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="6" spans="1:5" ht="40" customHeight="1">
       <c r="A6" s="8" t="s">
@@ -2055,10 +2059,14 @@
         <v>50</v>
       </c>
       <c r="C6" s="8">
-        <v>5</v>
-      </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
+        <v>30</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="7" spans="1:5" ht="40" customHeight="1">
       <c r="A7" s="8" t="s">
@@ -2067,9 +2075,7 @@
       <c r="B7" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="C7" s="8">
-        <v>5</v>
-      </c>
+      <c r="C7" s="8"/>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
     </row>
@@ -2170,10 +2176,10 @@
         <v>30</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="40" customHeight="1">
@@ -2301,10 +2307,10 @@
         <v>15</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="40" customHeight="1">
@@ -2318,10 +2324,10 @@
         <v>15</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="40" customHeight="1">
@@ -2335,10 +2341,10 @@
         <v>15</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="40" customHeight="1">
@@ -2352,10 +2358,10 @@
         <v>15</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="40" customHeight="1">
@@ -2369,10 +2375,10 @@
         <v>15</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="40" customHeight="1">
@@ -2386,10 +2392,10 @@
         <v>15</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="40" customHeight="1">
@@ -2403,10 +2409,10 @@
         <v>15</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="40" customHeight="1">
@@ -2434,7 +2440,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC5EB962-51C9-7644-9674-0BCBA0DD00B0}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
+    <sheetView zoomScale="75" workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
@@ -2485,10 +2491,10 @@
         <v>15</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="40" customHeight="1">
@@ -2502,10 +2508,10 @@
         <v>15</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="40" customHeight="1">
@@ -2572,11 +2578,11 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B5340EB-BD56-B447-87CE-47F3CE0C0C99}">
-  <dimension ref="A1:E11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AC4D8F7-60F7-E14B-8769-FFE3E4BF07CD}">
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView zoomScale="90" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
@@ -2594,7 +2600,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C1" s="5"/>
     </row>
@@ -2617,44 +2623,42 @@
     </row>
     <row r="3" spans="1:5" ht="40" customHeight="1">
       <c r="A3" s="8" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="C3" s="8">
-        <v>10</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>73</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
       <c r="E3" s="8" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="40" customHeight="1">
       <c r="A4" s="8" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="C4" s="8">
-        <v>10</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>74</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
       <c r="E4" s="8" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="40" customHeight="1">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
+      <c r="A5" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>61</v>
+      </c>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
+      <c r="E5" s="8" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="6" spans="1:5" ht="40" customHeight="1">
       <c r="A6" s="8"/>
@@ -2697,6 +2701,13 @@
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
+    </row>
+    <row r="12" spans="1:5" ht="40" customHeight="1">
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -2706,11 +2717,11 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AC4D8F7-60F7-E14B-8769-FFE3E4BF07CD}">
-  <dimension ref="A1:E12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B5340EB-BD56-B447-87CE-47F3CE0C0C99}">
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="75" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E12"/>
+    <sheetView zoomScale="90" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
@@ -2728,7 +2739,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C1" s="5"/>
     </row>
@@ -2751,10 +2762,10 @@
     </row>
     <row r="3" spans="1:5" ht="40" customHeight="1">
       <c r="A3" s="8" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
@@ -2762,22 +2773,18 @@
     </row>
     <row r="4" spans="1:5" ht="40" customHeight="1">
       <c r="A4" s="8" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
     </row>
     <row r="5" spans="1:5" ht="40" customHeight="1">
-      <c r="A5" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>61</v>
-      </c>
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
@@ -2824,13 +2831,6 @@
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
     </row>
-    <row r="12" spans="1:5" ht="40" customHeight="1">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/03スプリントバックログ/Scrum5_スプリントバックログ1128.xlsx
+++ b/03スプリントバックログ/Scrum5_スプリントバックログ1128.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11210"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58BE5937-D670-B640-97C9-A0BF1C8B7CFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A57C8AA1-648E-F145-8CE2-A95C292F89B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="15500" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="スプリントバックログ (第1スプリント)" sheetId="3" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="84">
   <si>
     <t>機能名</t>
     <rPh sb="0" eb="3">
@@ -698,6 +698,13 @@
   </si>
   <si>
     <t>メールアドレス・パスワード・ニックネームを見ることができる</t>
+  </si>
+  <si>
+    <t>村岡</t>
+    <rPh sb="0" eb="2">
+      <t>ムラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -1837,8 +1844,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F33ECD1-9EBD-254E-99B5-5513701E51FF}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="19"/>
@@ -1891,7 +1898,7 @@
         <v>72</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="40" customHeight="1">
@@ -1908,7 +1915,7 @@
         <v>73</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="40" customHeight="1">
@@ -2581,7 +2588,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AC4D8F7-60F7-E14B-8769-FFE3E4BF07CD}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
+    <sheetView zoomScale="75" workbookViewId="0">
       <selection activeCell="E3" sqref="E3:E5"/>
     </sheetView>
   </sheetViews>
